--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Your-Computer\Documents\GitHub\csukabot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E6CE4A-1F3E-4341-83A4-A051823D46C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B76FC2-CD85-47A6-BCB6-49A0A1808A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Név</t>
   </si>
@@ -55,12 +55,24 @@
   </si>
   <si>
     <t>Karnauf Ábel</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>kész</t>
+  </si>
+  <si>
+    <t>PPT elkezdése és befejezése</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/\ m/\ d\.\ h:mm;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,29 +288,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -615,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,104 +638,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
@@ -740,76 +748,86 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45057.791666666664</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45057.805555555555</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
@@ -838,76 +856,76 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
     </row>
@@ -936,21 +954,21 @@
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="19"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1050,12 +1068,12 @@
       <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Your-Computer\Documents\GitHub\csukabot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\csukabot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B76FC2-CD85-47A6-BCB6-49A0A1808A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12CC4D7-9EB5-4E6A-93EA-13FC4080650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Név</t>
   </si>
@@ -64,6 +64,27 @@
   </si>
   <si>
     <t>PPT elkezdése és befejezése</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>Kész</t>
+  </si>
+  <si>
+    <t>PPT készítés</t>
+  </si>
+  <si>
+    <t>Fő oldal alapok</t>
+  </si>
+  <si>
+    <t>Fő oldal alapjainak elkészítése(divek)</t>
+  </si>
+  <si>
+    <t>Aloldal alapja</t>
+  </si>
+  <si>
+    <t>Aloldal alap készítése</t>
   </si>
 </sst>
 </file>
@@ -71,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/\ m/\ d\.\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/\ m/\ d\.\ h:mm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -288,25 +309,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -624,7 +649,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,99 +686,119 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="18">
+        <v>45043.75</v>
+      </c>
+      <c r="D2" s="18">
+        <v>45043.767361111109</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="19">
+        <v>45057.770833333336</v>
+      </c>
+      <c r="D3" s="19">
+        <v>45057.8125</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -778,302 +823,322 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="6"/>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="18">
+        <v>45057.770833333336</v>
+      </c>
+      <c r="D26" s="18">
+        <v>45057.8125</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="15"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="6"/>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="18">
+        <v>45050.708333333336</v>
+      </c>
+      <c r="D38" s="18">
+        <v>45050.75</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="8"/>
       <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="13"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\csukabot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12CC4D7-9EB5-4E6A-93EA-13FC4080650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EA5852-3A6C-4534-9CD5-457DE730A9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Név</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>Aloldal alap készítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fő oldal </t>
+  </si>
+  <si>
+    <t>Fő oldal</t>
+  </si>
+  <si>
+    <t>Linkek megcsinálása, kisebb változtatások, alap divek elkészítése.</t>
+  </si>
+  <si>
+    <t>Elcsúszási hibák javítása, cipők diveinek megcsinálása, képek a főoldalra</t>
   </si>
 </sst>
 </file>
@@ -325,13 +337,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -649,7 +661,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,10 +701,10 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>45043.75</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>45043.767361111109</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -707,10 +719,10 @@
       <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>45057.770833333336</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>45057.8125</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -722,19 +734,39 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="19">
+        <v>45082.708333333336</v>
+      </c>
+      <c r="D4" s="19">
+        <v>45082.75</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="18">
+        <v>45083.770833333336</v>
+      </c>
+      <c r="D5" s="18">
+        <v>45083.819444444445</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -795,8 +827,8 @@
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
     </row>
@@ -903,8 +935,8 @@
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
     </row>
@@ -915,10 +947,10 @@
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>45057.770833333336</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <v>45057.8125</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1011,8 +1043,8 @@
     <row r="37" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="11"/>
       <c r="F37" s="12"/>
     </row>
@@ -1023,10 +1055,10 @@
       <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="17">
         <v>45050.708333333336</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="17">
         <v>45050.75</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -1135,8 +1167,8 @@
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
     </row>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\csukabot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Your-Computer\Documents\GitHub\csukabot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EA5852-3A6C-4534-9CD5-457DE730A9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A3A5EA-0567-42D0-854D-C6FA714707D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Név</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Elcsúszási hibák javítása, cipők diveinek megcsinálása, képek a főoldalra</t>
+  </si>
+  <si>
+    <t>oldal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    20203.06.06 20:30</t>
+  </si>
+  <si>
+    <t>képek kiválasztása és beillesztése</t>
   </si>
 </sst>
 </file>
@@ -321,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -344,6 +353,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -661,7 +672,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,89 +865,99 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="18">
+        <v>45083.819444444445</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
     </row>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Your-Computer\Documents\GitHub\csukabot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balazs\OneDrive\Asztali gép\cipobolt\csukabot\csukabot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A3A5EA-0567-42D0-854D-C6FA714707D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Név</t>
   </si>
@@ -106,12 +105,21 @@
   </si>
   <si>
     <t>képek kiválasztása és beillesztése</t>
+  </si>
+  <si>
+    <t>Edzőcipő oldal</t>
+  </si>
+  <si>
+    <t>Folyamatban</t>
+  </si>
+  <si>
+    <t>Képek leírásának elkészítése</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/\ m/\ d\.\ h:mm;@"/>
   </numFmts>
@@ -668,11 +676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B27" sqref="B27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,11 +991,21 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="18">
+        <v>45083.833333333336</v>
+      </c>
+      <c r="D27" s="18">
+        <v>45083.878472222219</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Név</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Képek leírásának elkészítése</t>
+  </si>
+  <si>
+    <t>Google keresés és képek</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:F27"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,11 +1012,21 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="18">
+        <v>45085.833333333336</v>
+      </c>
+      <c r="D28" s="18">
+        <v>45085.875</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balazs\OneDrive\Asztali gép\cipobolt\csukabot\csukabot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\csukabot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E98D5D6-8E28-4D38-A1E6-C1CFA2D12993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Név</t>
   </si>
@@ -116,13 +117,22 @@
     <t>Képek leírásának elkészítése</t>
   </si>
   <si>
-    <t>Google keresés és képek</t>
+    <t>Bakancs oldal</t>
+  </si>
+  <si>
+    <t>Bakancs oldal készítése</t>
+  </si>
+  <si>
+    <t>Minden</t>
+  </si>
+  <si>
+    <t>itt volt minden teso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/\ m/\ d\.\ h:mm;@"/>
   </numFmts>
@@ -341,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -364,8 +374,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -679,11 +687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,11 +800,21 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="18">
+        <v>45083.916666666664</v>
+      </c>
+      <c r="D6" s="18">
+        <v>45083.9375</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -882,7 +900,7 @@
       <c r="C15" s="18">
         <v>45083.819444444445</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -895,80 +913,80 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
     </row>
@@ -1012,21 +1030,11 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="18">
-        <v>45085.833333333336</v>
-      </c>
-      <c r="D28" s="18">
-        <v>45085.875</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -1122,11 +1130,21 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="B39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="18">
+        <v>45084.75</v>
+      </c>
+      <c r="D39" s="18">
+        <v>45084.791666666664</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
